--- a/src/test/resources/TestData/dataprovider.xlsx
+++ b/src/test/resources/TestData/dataprovider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2235" windowWidth="17280" windowHeight="9960"/>
+    <workbookView xWindow="2235" yWindow="2235" windowWidth="17280" windowHeight="9960" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>username</t>
   </si>
@@ -114,6 +114,33 @@
   </si>
   <si>
     <t>BiriYani</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>print("Hello</t>
+  </si>
+  <si>
+    <t>edgr7&amp;rk</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad input on line 1</t>
+  </si>
+  <si>
+    <t>NameError: name 'edgr7' is not defined on line 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alert </t>
+  </si>
+  <si>
+    <t>syntax</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -476,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -731,10 +758,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:D8"/>
+  <dimension ref="A8:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +778,14 @@
       </c>
       <c r="D8" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -763,14 +798,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>